--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.907208964426461</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.27005066475444</v>
+        <v>7.270050664754438</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.349836092897374</v>
@@ -664,7 +664,7 @@
         <v>6.622714958544836</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.468668572158943</v>
+        <v>6.468668572158941</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.419889093290084</v>
+        <v>2.504684539963288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.978456416296873</v>
+        <v>4.217230045526889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.997530155427663</v>
+        <v>2.203229850681503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.351881978686309</v>
+        <v>2.404014202958403</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.977581297608062</v>
+        <v>2.650486789054109</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.675482183446005</v>
+        <v>4.260028024094265</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.325633537630505</v>
+        <v>3.223386435943759</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.411201712821029</v>
+        <v>4.236061108736554</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.386860934499456</v>
+        <v>4.416344043205672</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.68128236032204</v>
+        <v>8.611885912300867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.0154962084277</v>
+        <v>11.16745002102771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.463931288888553</v>
+        <v>8.775733310973235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.998170936656371</v>
+        <v>8.069021343277123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.113423614404642</v>
+        <v>9.277309944946188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.931984898870477</v>
+        <v>9.833221592296278</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.278397996236491</v>
+        <v>7.285120071989724</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.793580581856778</v>
+        <v>9.02375059188571</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.361707408548398</v>
+        <v>8.584579817248708</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4602814135800702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5664721219315791</v>
+        <v>0.5664721219315789</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4369259805679572</v>
@@ -769,7 +769,7 @@
         <v>0.5408831554906834</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5283020469752346</v>
+        <v>0.5283020469752344</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1952809264146685</v>
+        <v>0.1987677995883198</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2999012020657137</v>
+        <v>0.3136606061078011</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1544580368248449</v>
+        <v>0.1631430718883514</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1663145409242416</v>
+        <v>0.163284377075566</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2079696005780587</v>
+        <v>0.1867402353389421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3158785265230777</v>
+        <v>0.2878794676041802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2742151021133201</v>
+        <v>0.2390552458196064</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.341275559388155</v>
+        <v>0.3224088498268236</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3230440138153595</v>
+        <v>0.3365888521787451</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8442615761136897</v>
+        <v>0.8399490607049317</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.050902602315689</v>
+        <v>1.075830933679348</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8263645500481631</v>
+        <v>0.8416233936254295</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6941209616085103</v>
+        <v>0.7007682623376703</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7840949628528378</v>
+        <v>0.7879748379462107</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8602080716469797</v>
+        <v>0.8465998434043136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6558633892357925</v>
+        <v>0.6375044235871938</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.772429418503103</v>
+        <v>0.7849722138086966</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7253277466021046</v>
+        <v>0.7607744887181911</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.386807100743668</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.351141708448054</v>
+        <v>3.351141708448055</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8476770353256258</v>
+        <v>-0.8420697938754212</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.24788114521127</v>
+        <v>1.258239730212178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.970709668433395</v>
+        <v>2.787486657968511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06878825198113225</v>
+        <v>0.1656829030855441</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.046732406603235</v>
+        <v>1.160701343524109</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.475384570883247</v>
+        <v>1.46409348703923</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.06901826538737814</v>
+        <v>-0.03038457245302128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.505110196963961</v>
+        <v>1.392615979451905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.507679041550286</v>
+        <v>2.504296710283517</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.696209601329126</v>
+        <v>1.550528871396187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.946327774192941</v>
+        <v>3.877932243678792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.555391845407827</v>
+        <v>5.512298144163811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.213850948344005</v>
+        <v>2.271835737059971</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.334825662465446</v>
+        <v>3.469027740855106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.441409747971572</v>
+        <v>3.304661505497581</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.515440065892132</v>
+        <v>1.589902354605608</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.215629113655713</v>
+        <v>3.242333581502322</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.117611917796624</v>
+        <v>4.16592882255186</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.9402072469788422</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.32007639785981</v>
+        <v>1.320076397859811</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.225404716351739</v>
+        <v>-0.2251928158988553</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2983635068112902</v>
+        <v>0.3101694576955982</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7550280980744623</v>
+        <v>0.7060966658334963</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02057519287407679</v>
+        <v>0.0664783617754868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3833246667549424</v>
+        <v>0.490612816694455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5666430795156765</v>
+        <v>0.6008819577844993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02915076831603377</v>
+        <v>-0.01680833369489681</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5190850002900192</v>
+        <v>0.4461245107339064</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.813118090902767</v>
+        <v>0.8130272220302713</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6392147293630677</v>
+        <v>0.573297227424469</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.487411400615848</v>
+        <v>1.51848792036303</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.191621368279481</v>
+        <v>2.126130335574856</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.524297673516247</v>
+        <v>1.61573103658254</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.376977690356314</v>
+        <v>2.630163579047662</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.638655379035249</v>
+        <v>2.462647904135145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.669009126025499</v>
+        <v>0.769232043710771</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.462305559320605</v>
+        <v>1.525273890642891</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.870014833382704</v>
+        <v>1.956285596620061</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.881334516910053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.144160172291896</v>
+        <v>4.144160172291893</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.01338969589263043</v>
@@ -1092,7 +1092,7 @@
         <v>1.086049616805965</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.527319746657441</v>
+        <v>2.527319746657439</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7864845525425738</v>
+        <v>-0.7416834369178802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2566311455442204</v>
+        <v>-0.1411321235124409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.313981877447559</v>
+        <v>2.258647482264078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.627485713833796</v>
+        <v>-1.700044185491781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.302178388097602</v>
+        <v>-1.369878038275905</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6653591952066131</v>
+        <v>-0.6142643570500796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7591094743646447</v>
+        <v>-0.6568931407218459</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.153775486930839</v>
+        <v>-0.08478318078046353</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.321595766108399</v>
+        <v>1.341693134104636</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.356521021806547</v>
+        <v>3.438957422407142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.116749095965831</v>
+        <v>4.394340444225659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.255512928068692</v>
+        <v>6.426764134986571</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.64680318154548</v>
+        <v>1.765753282097192</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.913962209253594</v>
+        <v>1.92686717242757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.306305828361583</v>
+        <v>2.338060681593954</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.965803152973824</v>
+        <v>2.0708927958659</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.427998324342363</v>
+        <v>2.549152194346995</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.696262459495511</v>
+        <v>3.726319062986731</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.016018484488699</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.238062024528169</v>
+        <v>2.238062024528167</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.008605004689217354</v>
@@ -1197,7 +1197,7 @@
         <v>0.6333978575768073</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.473964806186552</v>
+        <v>1.473964806186551</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3834997897425745</v>
+        <v>-0.3845555255079075</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2039058902023218</v>
+        <v>-0.1388841772334046</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7213527995617212</v>
+        <v>0.6389871772811491</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7488391481300446</v>
+        <v>-0.7560829537791672</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5698459861570985</v>
+        <v>-0.6128870898758295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2943350244685122</v>
+        <v>-0.2868620206365628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3972628818781735</v>
+        <v>-0.313541996459205</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08117709475430793</v>
+        <v>-0.09737308206596541</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4506508953287229</v>
+        <v>0.49645573933999</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.545191700285919</v>
+        <v>2.893412055612979</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.250991693260783</v>
+        <v>3.588477679735977</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.696926675273462</v>
+        <v>5.825166493686652</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.071519458684542</v>
+        <v>2.734894297937226</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.520515111173041</v>
+        <v>2.579133150279812</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.116128478849414</v>
+        <v>3.305140049469302</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.548558234038103</v>
+        <v>1.804135634846329</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.093739086982104</v>
+        <v>2.169197918493041</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.205893288382531</v>
+        <v>3.278156735407507</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.796142819003426</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.35059797083275</v>
+        <v>1.350597970832752</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.058578862157919</v>
@@ -1306,7 +1306,7 @@
         <v>2.283199754007177</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.200299261035109</v>
+        <v>2.20029926103511</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5744847585772098</v>
+        <v>0.5904685438625102</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.579762200601371</v>
+        <v>1.460284749156885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.837310523460564</v>
+        <v>1.825814666410384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.046471586343327</v>
+        <v>1.18720296281616</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6187879111360386</v>
+        <v>0.5114443738669019</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1889503117258421</v>
+        <v>0.3440381448824878</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.176783595644094</v>
+        <v>1.153472369697584</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.453858030782946</v>
+        <v>1.393523230454171</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.368803860884087</v>
+        <v>1.403212623854797</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.015884854552275</v>
+        <v>2.950086175621723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.031334111885222</v>
+        <v>3.960576036915384</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.178979664460624</v>
+        <v>4.202077247106704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.478459978923434</v>
+        <v>3.643320678071191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.089520897522303</v>
+        <v>3.082520815548377</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.334370270615369</v>
+        <v>2.512133669221184</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.917487177026588</v>
+        <v>3.006481642153651</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.207775201768255</v>
+        <v>3.10407281702643</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.009972112685245</v>
+        <v>2.976803286708555</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.295763527584103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2223974708331162</v>
+        <v>0.2223974708331165</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.352852302841094</v>
@@ -1411,7 +1411,7 @@
         <v>0.391353620625028</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3771439974769534</v>
+        <v>0.3771439974769536</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09448783658651666</v>
+        <v>0.0868435239299658</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2600587076133479</v>
+        <v>0.2399121443536588</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3061190030275138</v>
+        <v>0.2828584722747756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1580571191200213</v>
+        <v>0.1800893444767752</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09083094860942044</v>
+        <v>0.07944072915761713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02673261302591231</v>
+        <v>0.04950921982962588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1924835375620648</v>
+        <v>0.1826841558836951</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2331899667527142</v>
+        <v>0.2224948779155029</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2173317401490494</v>
+        <v>0.2205897577163678</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6013128679735731</v>
+        <v>0.5774432109435751</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7979221461997318</v>
+        <v>0.7916066619569674</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8376405985773115</v>
+        <v>0.8149553722789272</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6309261948747749</v>
+        <v>0.6555230038450575</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.542389593422464</v>
+        <v>0.5707402952018203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4254629417591119</v>
+        <v>0.4763733428532789</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.537870385767596</v>
+        <v>0.5593069756841095</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.598617852180073</v>
+        <v>0.5750151201758865</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5529615595344795</v>
+        <v>0.5471306920912249</v>
       </c>
     </row>
     <row r="28">
